--- a/測試題目.xlsx
+++ b/測試題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirong/Desktop/CCD_RAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3107A335-A7B9-2E45-9A1D-8035D64BE1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC3676C-4CAF-5341-8116-231C09FDC6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="740" windowWidth="22780" windowHeight="16940" xr2:uid="{49CF8178-EFA8-9643-BFB1-A8E39845DF37}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我家 10 歲的柴犬最近開始挑食，特別是在晚餐時幾乎不吃，體重也明顯下降。我在網路上看到有人建議加 GABA 或 B 群維生素來改善認知問題和食慾。我想知道這真的有幫助嗎？該怎麼評估這些營養品適不適合牠？</t>
-  </si>
-  <si>
     <t>系統對營養補充（GABA、B 群維生素）的效果與建議用法、針對老年犬失智初期食慾下降可能的因應對策</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,6 +343,10 @@
 大中型犬或許因空間活動量大，需要更頻繁的行為管理。
 壽命差異
 小型犬壽命長，需更長期的失智照顧；大型犬若壽命相對短，症狀衝擊可能會在較短時間集中出現。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我家 10 歲的柴犬最近開始挑食，特別是在晚餐時幾乎不吃，體重也明顯下降。我在網路上看到有人建議加 GABA 或 B 群維生素來改善認知問題和食慾。我想知道這真的有幫助嗎？該怎麼評估這些營養品適不適合牠？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A6E25-28F7-6A43-9063-8BB9C579CCE6}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -812,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -824,21 +825,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="96">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="80">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -847,30 +848,30 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="96">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="80">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="96">
@@ -878,19 +879,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -899,19 +900,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -920,100 +921,100 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="96">
+    <row r="7" spans="1:7" ht="48">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="48">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="64">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="32">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="80">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48">
@@ -1021,121 +1022,121 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="80">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="80">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="64">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32">
@@ -1143,18 +1144,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1162,103 +1163,103 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="112">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="64">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="380">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="320">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="224">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="144">
       <c r="A21" s="4">
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="395">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="272">
       <c r="A22" s="4">
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="365">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="304">
       <c r="A23" s="4">
         <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7">
